--- a/checklist4.xlsx
+++ b/checklist4.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\FORM 4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1658201D-8103-4C9F-94DE-4C0239EBB458}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCB7CF77-B49B-4AAA-BE6C-7496B2849AFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja 1" sheetId="8" r:id="rId1"/>
@@ -20,7 +20,7 @@
     <sheet name="RESUMEN INGRESO" sheetId="5" state="hidden" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'tipos de ingreso'!$A$1:$C$30</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'tipos de ingreso'!$A$1:$C$33</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="62">
   <si>
     <t xml:space="preserve">Reporte Tributario actualizado </t>
   </si>
@@ -678,7 +678,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E36534F0-044C-4E68-A267-7059DA47BA45}">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
@@ -802,7 +802,7 @@
   <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -894,10 +894,10 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:C50"/>
+  <dimension ref="A1:C53"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21:D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1034,7 +1034,7 @@
       <c r="B12" t="s">
         <v>8</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12" s="18" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1054,10 +1054,10 @@
         <v>54</v>
       </c>
       <c r="B14" t="s">
-        <v>12</v>
-      </c>
-      <c r="C14" t="s">
-        <v>13</v>
+        <v>8</v>
+      </c>
+      <c r="C14" s="18" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
@@ -1065,7 +1065,7 @@
         <v>54</v>
       </c>
       <c r="B15" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C15" t="s">
         <v>14</v>
@@ -1078,41 +1078,41 @@
       <c r="B16" t="s">
         <v>12</v>
       </c>
-      <c r="C16" s="18" t="s">
-        <v>15</v>
+      <c r="C16" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B17" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C17" t="s">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B18" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C18" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B19" t="s">
-        <v>8</v>
-      </c>
-      <c r="C19" t="s">
-        <v>17</v>
+        <v>12</v>
+      </c>
+      <c r="C19" s="18" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
@@ -1120,10 +1120,10 @@
         <v>55</v>
       </c>
       <c r="B20" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C20" t="s">
-        <v>18</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
@@ -1131,76 +1131,76 @@
         <v>55</v>
       </c>
       <c r="B21" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C21" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>20</v>
+        <v>55</v>
       </c>
       <c r="B22" t="s">
-        <v>42</v>
+        <v>8</v>
       </c>
       <c r="C22" t="s">
-        <v>2</v>
+        <v>17</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>20</v>
+        <v>55</v>
       </c>
       <c r="B23" t="s">
-        <v>42</v>
+        <v>12</v>
       </c>
       <c r="C23" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>20</v>
+        <v>55</v>
       </c>
       <c r="B24" t="s">
-        <v>42</v>
+        <v>12</v>
       </c>
       <c r="C24" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B25" t="s">
-        <v>8</v>
+        <v>42</v>
       </c>
       <c r="C25" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B26" t="s">
-        <v>8</v>
+        <v>42</v>
       </c>
       <c r="C26" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B27" t="s">
-        <v>12</v>
+        <v>42</v>
       </c>
       <c r="C27" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
@@ -1208,10 +1208,10 @@
         <v>23</v>
       </c>
       <c r="B28" t="s">
-        <v>12</v>
-      </c>
-      <c r="C28" s="18" t="s">
-        <v>60</v>
+        <v>8</v>
+      </c>
+      <c r="C28" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
@@ -1219,10 +1219,10 @@
         <v>23</v>
       </c>
       <c r="B29" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C29" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
@@ -1232,30 +1232,63 @@
       <c r="B30" t="s">
         <v>12</v>
       </c>
-      <c r="C30" s="18" t="s">
+      <c r="C30" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>23</v>
+      </c>
+      <c r="B31" t="s">
+        <v>12</v>
+      </c>
+      <c r="C31" s="18" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>23</v>
+      </c>
+      <c r="B32" t="s">
+        <v>12</v>
+      </c>
+      <c r="C32" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>23</v>
+      </c>
+      <c r="B33" t="s">
+        <v>12</v>
+      </c>
+      <c r="C33" s="18" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="32" spans="1:3" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="33" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="34" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="35" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="36" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="37" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="38" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="39" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="40" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="41" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="42" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="43" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="44" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="45" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="46" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="47" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="48" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="34" spans="1:3" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="35" spans="1:3" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="36" spans="1:3" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="37" spans="1:3" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="38" spans="1:3" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="39" spans="1:3" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="40" spans="1:3" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="41" spans="1:3" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="42" spans="1:3" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="43" spans="1:3" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="44" spans="1:3" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="45" spans="1:3" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="46" spans="1:3" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="47" spans="1:3" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="48" spans="1:3" ht="12.75" x14ac:dyDescent="0.2"/>
     <row r="49" ht="12.75" x14ac:dyDescent="0.2"/>
     <row r="50" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="51" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="52" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="53" ht="12.75" x14ac:dyDescent="0.2"/>
   </sheetData>
   <printOptions horizontalCentered="1" gridLines="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>

--- a/checklist4.xlsx
+++ b/checklist4.xlsx
@@ -5,22 +5,22 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\FORM 4\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\FORM5\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCB7CF77-B49B-4AAA-BE6C-7496B2849AFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{05BDE0D8-0750-43DC-9D18-AEE94BAC5FAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Hoja 1" sheetId="8" r:id="rId1"/>
-    <sheet name="Hoja 2" sheetId="6" r:id="rId2"/>
-    <sheet name="Hoja 3" sheetId="7" r:id="rId3"/>
+    <sheet name="Documentación de indentificació" sheetId="8" r:id="rId1"/>
+    <sheet name="Documentacion de garantía" sheetId="6" r:id="rId2"/>
+    <sheet name="Otros " sheetId="7" r:id="rId3"/>
     <sheet name="tipos de ingreso" sheetId="1" r:id="rId4"/>
     <sheet name="RESUMEN INGRESO" sheetId="5" state="hidden" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'tipos de ingreso'!$A$1:$C$33</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'tipos de ingreso'!$A$1:$D$28</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,14 +38,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="67">
   <si>
     <t xml:space="preserve">Reporte Tributario actualizado </t>
   </si>
   <si>
-    <t>Reporte de Declaraciones y Pago</t>
-  </si>
-  <si>
     <t>6 Ultimos EECC</t>
   </si>
   <si>
@@ -55,15 +52,6 @@
     <t>Cuadro Resumen de Inmuebles alquilados</t>
   </si>
   <si>
-    <t>Contratos alquileres con vigencia 6 meses</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reporte Tributario Actualizado </t>
-  </si>
-  <si>
-    <t>Ficha RUC Actualizado</t>
-  </si>
-  <si>
     <t>modalidad 1</t>
   </si>
   <si>
@@ -88,60 +76,24 @@
     <t>Contrato de alquiler de local (Opcional)</t>
   </si>
   <si>
-    <t>Reporte de Renta y Retenciones</t>
-  </si>
-  <si>
-    <t>Reporte de declaraciones y pagos</t>
-  </si>
-  <si>
     <t>6 Boletas de Pago CAS</t>
   </si>
   <si>
     <t>6 Ultimos EECC - CAS</t>
   </si>
   <si>
-    <t xml:space="preserve">Profesional Independiente (No formal)		</t>
-  </si>
-  <si>
     <t>Resumen de ingresos (6 Ultimos meses)</t>
   </si>
   <si>
     <t>Constancia de la Actvidad que Realiza</t>
   </si>
   <si>
-    <t xml:space="preserve">5ta Categoría Formal 		</t>
-  </si>
-  <si>
     <t>3 Ultimos EECC de Sueldo (Ingreso Fijo)</t>
   </si>
   <si>
     <t>6 Ultimos EECC de sueldo (Ingresos varibales)</t>
   </si>
   <si>
-    <t>HR  (Actualizado)</t>
-  </si>
-  <si>
-    <t>Foto de la Garantía</t>
-  </si>
-  <si>
-    <t>Ubicación de la Garantía (Google maps)</t>
-  </si>
-  <si>
-    <t>Cartas de no Adeudo</t>
-  </si>
-  <si>
-    <t>Voucher de cancelación</t>
-  </si>
-  <si>
-    <t>Cronogramas de Pago</t>
-  </si>
-  <si>
-    <t>Proforma de Compras Activo Fijo</t>
-  </si>
-  <si>
-    <t>Proforma de Construcción</t>
-  </si>
-  <si>
     <t>DNI de Garantes (Vigente)</t>
   </si>
   <si>
@@ -178,45 +130,18 @@
     <t>Copia Literal</t>
   </si>
   <si>
-    <t>PU  (Actualizado)</t>
-  </si>
-  <si>
     <t>Otros</t>
   </si>
   <si>
-    <t>Certificado de Divorcio</t>
-  </si>
-  <si>
     <t>Documentación de Identificación</t>
   </si>
   <si>
     <t>Modalidad</t>
   </si>
   <si>
-    <t>1ra Categoría Formal</t>
-  </si>
-  <si>
-    <t>1ra Categoría Informal</t>
-  </si>
-  <si>
-    <t>3ra Categoría Formal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3ra Categoría Informal	</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4ta Categoría Formal	</t>
-  </si>
-  <si>
-    <t>Tipo de Ingreso</t>
-  </si>
-  <si>
     <t>DNI titular , Conyuge  (Vigente)</t>
   </si>
   <si>
-    <t>Separacion de Bienes (En caso sean casados)</t>
-  </si>
-  <si>
     <t>6 Ultimas Boletas pago (ingreso variable)</t>
   </si>
   <si>
@@ -224,6 +149,96 @@
   </si>
   <si>
     <t>Otros según la casuística de evaluación</t>
+  </si>
+  <si>
+    <t>PU  (Del año en curso)</t>
+  </si>
+  <si>
+    <t>HR  (Del año en curso)</t>
+  </si>
+  <si>
+    <t>Foto de la Garantía (si la garantía puede presentar comercialidad baja)</t>
+  </si>
+  <si>
+    <t>Ubicación de la Garantía(maps) (si la garantía puede presentar comercialidad baja)</t>
+  </si>
+  <si>
+    <t>Separacion de Bienes (En caso sean casados con bienes separados)</t>
+  </si>
+  <si>
+    <t>Certificado de Divorcio (si figuran casados en dni pero tiene divorcio reciente)</t>
+  </si>
+  <si>
+    <t>Cartas de no Adeudo (para acreditar si alguna deuda reportada ya ha sido cancelada)</t>
+  </si>
+  <si>
+    <t>Voucher de cancelación (para acreditar si alguna deuda reportada ya ha sido cancelada)</t>
+  </si>
+  <si>
+    <t>Cronogramas de Pago (aplica para hábito de pago o si el analista lo solicita para cálculo de rci)</t>
+  </si>
+  <si>
+    <t>Proforma de Compras Activo Fijo (aplica para capital de trabajo)</t>
+  </si>
+  <si>
+    <t>Proforma de Construcción (aplica para remodelación de vivienda)</t>
+  </si>
+  <si>
+    <t>Tipo de ingreso</t>
+  </si>
+  <si>
+    <t>1ra Categoría (alquileres)</t>
+  </si>
+  <si>
+    <t>3ra Categoría (empresarial)</t>
+  </si>
+  <si>
+    <t>4ta Categoría (servicios profesionales)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5ta Categoría (planilla)	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Modalidad bancarizada </t>
+  </si>
+  <si>
+    <t>Modalidad No Bancarizada</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Modalidad Bancarizada </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Negocio </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alquileres </t>
+  </si>
+  <si>
+    <t>Ingreso No declarado</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Profesional Independiente </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Profesional Independiente 	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Profesional Independiente	</t>
+  </si>
+  <si>
+    <t>Reporte Tributario Actualizado</t>
+  </si>
+  <si>
+    <t>Ficha RUC Actualizada</t>
+  </si>
+  <si>
+    <t>Contratos alquileres con vigencia mayor a 6 meses</t>
+  </si>
+  <si>
+    <t>Actividad ecónomica</t>
+  </si>
+  <si>
+    <t>Ingreso Declarado</t>
   </si>
 </sst>
 </file>
@@ -233,7 +248,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dd/mm/yyyy"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -294,6 +309,12 @@
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -439,9 +460,6 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -461,6 +479,7 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -678,7 +697,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E36534F0-044C-4E68-A267-7059DA47BA45}">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
@@ -690,34 +709,34 @@
   <sheetData>
     <row r="1" spans="1:2" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="12" t="s">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>43</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="11" t="s">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>57</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="11" t="s">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>57</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="11" t="s">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>34</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -731,7 +750,7 @@
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B23" sqref="A23:B23"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -742,50 +761,50 @@
   <sheetData>
     <row r="1" spans="1:2" s="13" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="14" t="s">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="B1" s="15" t="s">
-        <v>43</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>26</v>
+        <v>38</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
@@ -802,7 +821,7 @@
   <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -812,74 +831,74 @@
   <sheetData>
     <row r="1" spans="1:2" s="13" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="15" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="B1" s="15" t="s">
-        <v>43</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="16" t="s">
-        <v>47</v>
-      </c>
-      <c r="B2" s="19" t="s">
-        <v>58</v>
+        <v>30</v>
+      </c>
+      <c r="B2" s="18" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="16" t="s">
-        <v>47</v>
-      </c>
-      <c r="B3" s="17" t="s">
-        <v>48</v>
+        <v>30</v>
+      </c>
+      <c r="B3" s="18" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="16" t="s">
-        <v>47</v>
-      </c>
-      <c r="B4" s="17" t="s">
-        <v>29</v>
+        <v>30</v>
+      </c>
+      <c r="B4" s="18" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="16" t="s">
-        <v>47</v>
-      </c>
-      <c r="B5" s="17" t="s">
         <v>30</v>
+      </c>
+      <c r="B5" s="18" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="16" t="s">
-        <v>47</v>
-      </c>
-      <c r="B6" s="17" t="s">
-        <v>31</v>
+        <v>30</v>
+      </c>
+      <c r="B6" s="18" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="16" t="s">
-        <v>47</v>
-      </c>
-      <c r="B7" s="17" t="s">
-        <v>32</v>
+        <v>30</v>
+      </c>
+      <c r="B7" s="18" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="B8" s="18" t="s">
         <v>47</v>
-      </c>
-      <c r="B8" s="17" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="16" t="s">
-        <v>47</v>
-      </c>
-      <c r="B9" s="19" t="s">
-        <v>61</v>
+        <v>30</v>
+      </c>
+      <c r="B9" s="18" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -894,402 +913,443 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:C53"/>
+  <dimension ref="A1:D48"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21:D24"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="32.7109375" customWidth="1"/>
-    <col min="2" max="2" width="34.5703125" customWidth="1"/>
+    <col min="1" max="1" width="20" customWidth="1"/>
+    <col min="2" max="2" width="33.28515625" customWidth="1"/>
+    <col min="3" max="3" width="34.5703125" customWidth="1"/>
+    <col min="4" max="4" width="44" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="12" t="s">
+    <row r="1" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="B1" s="26" t="s">
+        <v>65</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A2" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A3" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="B3" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="C3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3" s="17" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A4" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="B4" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="C4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" s="17" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A5" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="B5" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="C5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" s="17" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A6" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="B6" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="C6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A7" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="B7" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="C7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A8" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="B8" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="C8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D8" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A9" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="B9" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="C9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A10" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="B10" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="C10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10" s="17" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A11" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="B11" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="C11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A12" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="B12" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="C12" t="s">
+        <v>8</v>
+      </c>
+      <c r="D12" s="17" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A13" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="B13" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="C13" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="D13" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A14" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="B14" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="C14" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="D14" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A15" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="B15" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="C15" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="D15" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A16" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="B16" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="C16" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="D16" s="17" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A17" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="B17" s="17" t="s">
         <v>56</v>
       </c>
-      <c r="B1" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="C1" s="12" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A2" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A3" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="B3" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="C17" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="D17" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A18" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="B18" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="C18" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="D18" s="17" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A19" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="B19" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="C19" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="D19" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A20" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="B20" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="C20" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="D20" s="17" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A21" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="B21" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="C21" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="D21" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A22" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="B22" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="C22" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="D22" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A23" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="B23" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="C23" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="D23" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A24" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="B24" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="C24" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="D24" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A25" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="B25" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="C25" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="D25" s="17" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A26" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="B26" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="C26" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="D26" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>52</v>
-      </c>
-      <c r="B4" s="18" t="s">
-        <v>42</v>
-      </c>
-      <c r="C4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>52</v>
-      </c>
-      <c r="B5" t="s">
-        <v>42</v>
-      </c>
-      <c r="C5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>52</v>
-      </c>
-      <c r="B6" t="s">
-        <v>42</v>
-      </c>
-      <c r="C6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>52</v>
-      </c>
-      <c r="B7" t="s">
-        <v>42</v>
-      </c>
-      <c r="C7" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
+    <row r="27" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A27" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="B27" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="C27" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="B8" t="s">
-        <v>42</v>
-      </c>
-      <c r="C8" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
+      <c r="D27" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A28" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="B28" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="C28" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="B9" t="s">
-        <v>42</v>
-      </c>
-      <c r="C9" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>53</v>
-      </c>
-      <c r="B10" s="18" t="s">
-        <v>42</v>
-      </c>
-      <c r="C10" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>54</v>
-      </c>
-      <c r="B11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>54</v>
-      </c>
-      <c r="B12" t="s">
-        <v>8</v>
-      </c>
-      <c r="C12" s="18" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>54</v>
-      </c>
-      <c r="B13" t="s">
-        <v>8</v>
-      </c>
-      <c r="C13" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>54</v>
-      </c>
-      <c r="B14" t="s">
-        <v>8</v>
-      </c>
-      <c r="C14" s="18" t="s">
+      <c r="D28" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>54</v>
-      </c>
-      <c r="B15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C15" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>54</v>
-      </c>
-      <c r="B16" t="s">
-        <v>12</v>
-      </c>
-      <c r="C16" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>54</v>
-      </c>
-      <c r="B17" t="s">
-        <v>12</v>
-      </c>
-      <c r="C17" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>54</v>
-      </c>
-      <c r="B18" t="s">
-        <v>12</v>
-      </c>
-      <c r="C18" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>54</v>
-      </c>
-      <c r="B19" t="s">
-        <v>12</v>
-      </c>
-      <c r="C19" s="18" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>55</v>
-      </c>
-      <c r="B20" t="s">
-        <v>8</v>
-      </c>
-      <c r="C20" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>55</v>
-      </c>
-      <c r="B21" t="s">
-        <v>8</v>
-      </c>
-      <c r="C21" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>55</v>
-      </c>
-      <c r="B22" t="s">
-        <v>8</v>
-      </c>
-      <c r="C22" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>55</v>
-      </c>
-      <c r="B23" t="s">
-        <v>12</v>
-      </c>
-      <c r="C23" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
-        <v>55</v>
-      </c>
-      <c r="B24" t="s">
-        <v>12</v>
-      </c>
-      <c r="C24" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
-        <v>20</v>
-      </c>
-      <c r="B25" t="s">
-        <v>42</v>
-      </c>
-      <c r="C25" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
-        <v>20</v>
-      </c>
-      <c r="B26" t="s">
-        <v>42</v>
-      </c>
-      <c r="C26" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
-        <v>20</v>
-      </c>
-      <c r="B27" t="s">
-        <v>42</v>
-      </c>
-      <c r="C27" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
-        <v>23</v>
-      </c>
-      <c r="B28" t="s">
-        <v>8</v>
-      </c>
-      <c r="C28" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
-        <v>23</v>
-      </c>
-      <c r="B29" t="s">
-        <v>8</v>
-      </c>
-      <c r="C29" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
-        <v>23</v>
-      </c>
-      <c r="B30" t="s">
-        <v>12</v>
-      </c>
-      <c r="C30" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
-        <v>23</v>
-      </c>
-      <c r="B31" t="s">
-        <v>12</v>
-      </c>
-      <c r="C31" s="18" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
-        <v>23</v>
-      </c>
-      <c r="B32" t="s">
-        <v>12</v>
-      </c>
-      <c r="C32" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
-        <v>23</v>
-      </c>
-      <c r="B33" t="s">
-        <v>12</v>
-      </c>
-      <c r="C33" s="18" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="35" spans="1:3" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="36" spans="1:3" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="37" spans="1:3" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="38" spans="1:3" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="39" spans="1:3" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="40" spans="1:3" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="41" spans="1:3" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="42" spans="1:3" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="43" spans="1:3" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="44" spans="1:3" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="45" spans="1:3" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="46" spans="1:3" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="47" spans="1:3" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="48" spans="1:3" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="49" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="50" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="51" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="52" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="53" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="29" spans="1:4" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="30" spans="1:4" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="31" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A31" s="17"/>
+      <c r="B31" s="17"/>
+      <c r="C31" s="17"/>
+      <c r="D31" s="17"/>
+    </row>
+    <row r="32" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B32" s="17"/>
+    </row>
+    <row r="33" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B33" s="17"/>
+    </row>
+    <row r="34" spans="2:2" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="35" spans="2:2" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="36" spans="2:2" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="37" spans="2:2" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="38" spans="2:2" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="39" spans="2:2" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="40" spans="2:2" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="41" spans="2:2" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="42" spans="2:2" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="43" spans="2:2" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="44" spans="2:2" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="45" spans="2:2" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="46" spans="2:2" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="47" spans="2:2" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="48" spans="2:2" ht="12.75" x14ac:dyDescent="0.2"/>
   </sheetData>
+  <phoneticPr fontId="9" type="noConversion"/>
   <printOptions horizontalCentered="1" gridLines="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup paperSize="9" fitToHeight="0" pageOrder="overThenDown" orientation="landscape" cellComments="atEnd" r:id="rId1"/>
@@ -1319,101 +1379,101 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="23" t="s">
-        <v>35</v>
-      </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24"/>
-      <c r="H1" s="21"/>
+      <c r="A1" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="20"/>
     </row>
     <row r="2" spans="1:26" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="25" t="s">
-        <v>36</v>
-      </c>
-      <c r="B2" s="21"/>
-      <c r="C2" s="26"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
-      <c r="F2" s="24"/>
-      <c r="G2" s="24"/>
-      <c r="H2" s="21"/>
+      <c r="A2" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" s="20"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="23"/>
+      <c r="G2" s="23"/>
+      <c r="H2" s="20"/>
     </row>
     <row r="3" spans="1:26" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="I3" s="6" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="J3" s="6" t="s">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="K3" s="6" t="s">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="L3" s="6" t="s">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="M3" s="5" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="N3" s="5" t="s">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="O3" s="5" t="s">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="P3" s="5" t="s">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="Q3" s="6" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="R3" s="6" t="s">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="S3" s="6" t="s">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="T3" s="6" t="s">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="U3" s="5" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="V3" s="5" t="s">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="W3" s="5" t="s">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="X3" s="5" t="s">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="Y3" s="7"/>
       <c r="Z3" s="7"/>
@@ -2589,60 +2649,60 @@
       <c r="X34" s="2"/>
     </row>
     <row r="35" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A35" s="22" t="s">
-        <v>41</v>
-      </c>
-      <c r="B35" s="21"/>
-      <c r="C35" s="20">
+      <c r="A35" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="B35" s="20"/>
+      <c r="C35" s="19">
         <f>SUM(C4:C34)</f>
         <v>0</v>
       </c>
-      <c r="D35" s="21"/>
-      <c r="E35" s="22" t="s">
-        <v>41</v>
-      </c>
-      <c r="F35" s="21"/>
-      <c r="G35" s="20">
+      <c r="D35" s="20"/>
+      <c r="E35" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="F35" s="20"/>
+      <c r="G35" s="19">
         <f>SUM(G4:G34)</f>
         <v>0</v>
       </c>
-      <c r="H35" s="21"/>
-      <c r="I35" s="22" t="s">
-        <v>41</v>
-      </c>
-      <c r="J35" s="21"/>
-      <c r="K35" s="20">
+      <c r="H35" s="20"/>
+      <c r="I35" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="J35" s="20"/>
+      <c r="K35" s="19">
         <f>SUM(K4:K34)</f>
         <v>0</v>
       </c>
-      <c r="L35" s="21"/>
-      <c r="M35" s="22" t="s">
-        <v>41</v>
-      </c>
-      <c r="N35" s="21"/>
-      <c r="O35" s="20">
+      <c r="L35" s="20"/>
+      <c r="M35" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="N35" s="20"/>
+      <c r="O35" s="19">
         <f>SUM(O4:O34)</f>
         <v>0</v>
       </c>
-      <c r="P35" s="21"/>
-      <c r="Q35" s="22" t="s">
-        <v>41</v>
-      </c>
-      <c r="R35" s="21"/>
-      <c r="S35" s="20">
+      <c r="P35" s="20"/>
+      <c r="Q35" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="R35" s="20"/>
+      <c r="S35" s="19">
         <f>SUM(S4:S34)</f>
         <v>0</v>
       </c>
-      <c r="T35" s="21"/>
-      <c r="U35" s="22" t="s">
-        <v>41</v>
-      </c>
-      <c r="V35" s="21"/>
-      <c r="W35" s="20">
+      <c r="T35" s="20"/>
+      <c r="U35" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="V35" s="20"/>
+      <c r="W35" s="19">
         <f>SUM(W4:W34)</f>
         <v>0</v>
       </c>
-      <c r="X35" s="21"/>
+      <c r="X35" s="20"/>
     </row>
     <row r="36" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A36" s="3"/>

--- a/checklist4.xlsx
+++ b/checklist4.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\FORM5\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{05BDE0D8-0750-43DC-9D18-AEE94BAC5FAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB404044-F124-477E-BD1D-0305C468E6B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Documentación de indentificació" sheetId="8" r:id="rId1"/>
@@ -20,7 +20,7 @@
     <sheet name="RESUMEN INGRESO" sheetId="5" state="hidden" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'tipos de ingreso'!$A$1:$D$28</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'tipos de ingreso'!$A$1:$D$27</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,64 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="67">
-  <si>
-    <t xml:space="preserve">Reporte Tributario actualizado </t>
-  </si>
-  <si>
-    <t>6 Ultimos EECC</t>
-  </si>
-  <si>
-    <t>Recibo de cobro de alquileres (Opcional)</t>
-  </si>
-  <si>
-    <t>Cuadro Resumen de Inmuebles alquilados</t>
-  </si>
-  <si>
-    <t>modalidad 1</t>
-  </si>
-  <si>
-    <t>Licencia de Funcionamiento o Documentación que acredite la Propiedad del Negocio</t>
-  </si>
-  <si>
-    <t>Cuadernos Negros (6 Ultimos meses)</t>
-  </si>
-  <si>
-    <t>Resumen de ingreso opcional (Si se sustenta con Cuadernos)</t>
-  </si>
-  <si>
-    <t>modalidad 2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6 Ultimos EECC + Resumen de ingreso </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fotos del negocio </t>
-  </si>
-  <si>
-    <t>Contrato de alquiler de local (Opcional)</t>
-  </si>
-  <si>
-    <t>6 Boletas de Pago CAS</t>
-  </si>
-  <si>
-    <t>6 Ultimos EECC - CAS</t>
-  </si>
-  <si>
-    <t>Resumen de ingresos (6 Ultimos meses)</t>
-  </si>
-  <si>
-    <t>Constancia de la Actvidad que Realiza</t>
-  </si>
-  <si>
-    <t>3 Ultimos EECC de Sueldo (Ingreso Fijo)</t>
-  </si>
-  <si>
-    <t>6 Ultimos EECC de sueldo (Ingresos varibales)</t>
-  </si>
-  <si>
-    <t>DNI de Garantes (Vigente)</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="63">
   <si>
     <t>Resumen de ingreso identificados - EECC - 6 Ultimos meses</t>
   </si>
@@ -124,12 +67,6 @@
     <t>Documentación</t>
   </si>
   <si>
-    <t>Documentación de Garantia</t>
-  </si>
-  <si>
-    <t>Copia Literal</t>
-  </si>
-  <si>
     <t>Otros</t>
   </si>
   <si>
@@ -139,51 +76,6 @@
     <t>Modalidad</t>
   </si>
   <si>
-    <t>DNI titular , Conyuge  (Vigente)</t>
-  </si>
-  <si>
-    <t>6 Ultimas Boletas pago (ingreso variable)</t>
-  </si>
-  <si>
-    <t>3 Ultimas Boletas pago (ingreso fijo)</t>
-  </si>
-  <si>
-    <t>Otros según la casuística de evaluación</t>
-  </si>
-  <si>
-    <t>PU  (Del año en curso)</t>
-  </si>
-  <si>
-    <t>HR  (Del año en curso)</t>
-  </si>
-  <si>
-    <t>Foto de la Garantía (si la garantía puede presentar comercialidad baja)</t>
-  </si>
-  <si>
-    <t>Ubicación de la Garantía(maps) (si la garantía puede presentar comercialidad baja)</t>
-  </si>
-  <si>
-    <t>Separacion de Bienes (En caso sean casados con bienes separados)</t>
-  </si>
-  <si>
-    <t>Certificado de Divorcio (si figuran casados en dni pero tiene divorcio reciente)</t>
-  </si>
-  <si>
-    <t>Cartas de no Adeudo (para acreditar si alguna deuda reportada ya ha sido cancelada)</t>
-  </si>
-  <si>
-    <t>Voucher de cancelación (para acreditar si alguna deuda reportada ya ha sido cancelada)</t>
-  </si>
-  <si>
-    <t>Cronogramas de Pago (aplica para hábito de pago o si el analista lo solicita para cálculo de rci)</t>
-  </si>
-  <si>
-    <t>Proforma de Compras Activo Fijo (aplica para capital de trabajo)</t>
-  </si>
-  <si>
-    <t>Proforma de Construcción (aplica para remodelación de vivienda)</t>
-  </si>
-  <si>
     <t>Tipo de ingreso</t>
   </si>
   <si>
@@ -226,19 +118,115 @@
     <t xml:space="preserve">Profesional Independiente	</t>
   </si>
   <si>
-    <t>Reporte Tributario Actualizado</t>
-  </si>
-  <si>
-    <t>Ficha RUC Actualizada</t>
-  </si>
-  <si>
-    <t>Contratos alquileres con vigencia mayor a 6 meses</t>
-  </si>
-  <si>
     <t>Actividad ecónomica</t>
   </si>
   <si>
     <t>Ingreso Declarado</t>
+  </si>
+  <si>
+    <t>(Obligatorio) DNI titular , Cónyuge  (Vigente)</t>
+  </si>
+  <si>
+    <t>(Obligatorio) DNI de Garantes (Vigente)</t>
+  </si>
+  <si>
+    <t>(Obligatorio) PU  (Del año en curso)</t>
+  </si>
+  <si>
+    <t>(Obligatorio) Copia Literal</t>
+  </si>
+  <si>
+    <t>(Obligatorio) HR  (Del año en curso)</t>
+  </si>
+  <si>
+    <t>(Opcional) Foto de la Garantía</t>
+  </si>
+  <si>
+    <t>(Opcional) Ubicación de la Garantía(maps)</t>
+  </si>
+  <si>
+    <t>Modalidad 1</t>
+  </si>
+  <si>
+    <t>Modalidad 2</t>
+  </si>
+  <si>
+    <t>Documentación de Garantía</t>
+  </si>
+  <si>
+    <t>Hábito de pago</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(Obligatorio) Reporte Tributario actualizado </t>
+  </si>
+  <si>
+    <t>(Obligatorio) Reporte Tributario Actualizado</t>
+  </si>
+  <si>
+    <t>(Obligatorio) Ficha RUC Actualizada</t>
+  </si>
+  <si>
+    <t>(Obligatorio) 6 Boletas de Pago CAS</t>
+  </si>
+  <si>
+    <t>(Obligatorio) 6 Últimos Estados de cuenta sueldo - CAS</t>
+  </si>
+  <si>
+    <t>(Obligatorio) 3 Últimos Estados de cuenta de sueldo (Ingreso Fijo)</t>
+  </si>
+  <si>
+    <t>(Obligatorio) 3 Últimas Boletas pago (ingreso fijo)</t>
+  </si>
+  <si>
+    <t>En caso el ingreso tenga ingresos variables (comisiones por ejemplo) recaudar los últimos 6 Estados de cuenta sueldo y boletas de pago</t>
+  </si>
+  <si>
+    <t>(Obligatorio) 6 Últimos Estados de cuenta donde depositan las rentas</t>
+  </si>
+  <si>
+    <t>(Obligatorio) Contratos alquileres con vigencia mayor a 6 meses</t>
+  </si>
+  <si>
+    <t>(Obligatorio) Cuadro Resumen de Inmuebles alquilados</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(Opcional) Recibo de cobro de alquileres </t>
+  </si>
+  <si>
+    <t>(Obligatorio) Documentación que acredita propiedad de negocio (Licencia de funcionamiento, constancia de posesión de puesto, etc)</t>
+  </si>
+  <si>
+    <t>(Obligatorio) Cuadernos de venta (6 Ultimos meses)</t>
+  </si>
+  <si>
+    <t>(Opcional) Resúmen de ingreso (Si se sustenta con Cuadernos)</t>
+  </si>
+  <si>
+    <t>(Opcional) Contrato de alquiler de local</t>
+  </si>
+  <si>
+    <t>(Obligatorio) Fotos del negocio (fotos del puesto o stand y fotos de mercadería en caso sea negocio virtual)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(Obligatorio) 6 Últimos Estados de cuenta + Resumen de ingreso </t>
+  </si>
+  <si>
+    <t>(Obligatorio) Resúmen de ingresos (6 Ultimos meses)</t>
+  </si>
+  <si>
+    <t>(Obligatorio) Constancia de la Actvidad que Realiza(Ejemplo: odontologo adjuntar título profesional o fotos de consultorio, si es contador adjuntar título profesional, etc)</t>
+  </si>
+  <si>
+    <t>(Obligatorio) Cronograma de préstamos a comprar (préstamos personales, libres disponilidad, Disposición de efectivo, extralínea)</t>
+  </si>
+  <si>
+    <t>(Obligatorio) 6 Últimos Estados de cuenta</t>
+  </si>
+  <si>
+    <t>(Obligatorio) Separacion de Bienes (En caso sean casados con bienes separados)</t>
+  </si>
+  <si>
+    <t>(Obligatorio) Certificado de Divorcio (si figuran casados en dni pero tiene divorcio reciente)</t>
   </si>
 </sst>
 </file>
@@ -451,9 +439,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -463,6 +448,10 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -479,7 +468,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -695,10 +683,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E36534F0-044C-4E68-A267-7059DA47BA45}">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -709,34 +697,26 @@
   <sheetData>
     <row r="1" spans="1:2" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="12" t="s">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>27</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="B2" s="11" t="s">
-        <v>33</v>
+        <v>10</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="B3" s="11" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="B4" s="11" t="s">
-        <v>18</v>
+        <v>10</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -750,61 +730,60 @@
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="38.85546875" customWidth="1"/>
-    <col min="2" max="2" width="33.7109375" customWidth="1"/>
+    <col min="1" max="2" width="38.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" s="13" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="B1" s="15" t="s">
-        <v>27</v>
+      <c r="A1" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
@@ -818,10 +797,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0FC6392B-5BB0-4EB9-9D25-F62E59C24112}">
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:XFD9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -830,75 +809,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" s="13" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="B1" s="15" t="s">
-        <v>27</v>
+      <c r="A1" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="B2" s="18" t="s">
-        <v>41</v>
+      <c r="A2" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="17" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="B3" s="18" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="B4" s="18" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="B5" s="18" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="B6" s="18" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="B7" s="18" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="B8" s="18" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A9" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="B9" s="18" t="s">
-        <v>36</v>
+      <c r="A3" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="17" t="s">
+        <v>62</v>
       </c>
     </row>
   </sheetData>
@@ -913,10 +844,10 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:D48"/>
+  <dimension ref="A1:D47"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView topLeftCell="A15" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -929,425 +860,426 @@
   <sheetData>
     <row r="1" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A2" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="16" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A3" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="B3" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="16" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A4" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="B4" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="16" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A5" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="D5" s="16" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A6" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="B6" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="D6" s="16" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A7" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="B7" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="D7" s="16" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A8" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="B8" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="D8" s="16" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A9" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="B9" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="D9" s="16" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A10" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="B10" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="D10" s="16" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A11" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="B11" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="D11" s="16" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A12" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="C12" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="D12" s="16" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A13" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="C13" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="D13" s="16" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A14" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="C14" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="D14" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="B1" s="26" t="s">
-        <v>65</v>
-      </c>
-      <c r="C1" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="D1" s="12" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A2" s="17" t="s">
-        <v>66</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A3" s="17" t="s">
-        <v>66</v>
-      </c>
-      <c r="B3" s="17" t="s">
+    </row>
+    <row r="15" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A15" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="C15" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="D15" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="C3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D3" s="17" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A4" s="17" t="s">
-        <v>66</v>
-      </c>
-      <c r="B4" s="17" t="s">
-        <v>50</v>
-      </c>
-      <c r="C4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D4" s="17" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A5" s="17" t="s">
-        <v>66</v>
-      </c>
-      <c r="B5" s="17" t="s">
+    </row>
+    <row r="16" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A16" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="C16" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="D16" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="C5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D5" s="17" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A6" s="17" t="s">
-        <v>66</v>
-      </c>
-      <c r="B6" s="17" t="s">
+    </row>
+    <row r="17" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A17" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="C17" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="D17" s="16" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A18" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="C18" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="D18" s="16" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A19" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="C19" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="D19" s="16" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A20" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B20" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="C20" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="D20" s="16" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A21" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B21" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="C21" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="D21" s="16" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A22" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B22" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="D22" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="C6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D6" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A7" s="17" t="s">
-        <v>66</v>
-      </c>
-      <c r="B7" s="17" t="s">
-        <v>51</v>
-      </c>
-      <c r="C7" t="s">
-        <v>8</v>
-      </c>
-      <c r="D7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A8" s="17" t="s">
-        <v>66</v>
-      </c>
-      <c r="B8" s="17" t="s">
-        <v>52</v>
-      </c>
-      <c r="C8" t="s">
-        <v>4</v>
-      </c>
-      <c r="D8" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A9" s="17" t="s">
-        <v>66</v>
-      </c>
-      <c r="B9" s="17" t="s">
-        <v>52</v>
-      </c>
-      <c r="C9" t="s">
-        <v>8</v>
-      </c>
-      <c r="D9" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A10" s="17" t="s">
-        <v>66</v>
-      </c>
-      <c r="B10" s="17" t="s">
-        <v>52</v>
-      </c>
-      <c r="C10" t="s">
-        <v>8</v>
-      </c>
-      <c r="D10" s="17" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A11" s="17" t="s">
-        <v>66</v>
-      </c>
-      <c r="B11" s="17" t="s">
-        <v>52</v>
-      </c>
-      <c r="C11" t="s">
-        <v>8</v>
-      </c>
-      <c r="D11" t="s">
+    </row>
+    <row r="23" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A23" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B23" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="C23" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="D23" s="16" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A24" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B24" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="C24" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="D24" s="16" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A25" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B25" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="C25" s="16" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A12" s="17" t="s">
-        <v>66</v>
-      </c>
-      <c r="B12" s="17" t="s">
-        <v>52</v>
-      </c>
-      <c r="C12" t="s">
-        <v>8</v>
-      </c>
-      <c r="D12" s="17" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A13" s="17" t="s">
+      <c r="D25" s="16" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A26" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B26" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C26" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="D26" s="16" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A27" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B27" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="D27" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="B13" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="C13" s="17" t="s">
-        <v>53</v>
-      </c>
-      <c r="D13" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A14" s="17" t="s">
-        <v>58</v>
-      </c>
-      <c r="B14" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="C14" s="17" t="s">
-        <v>53</v>
-      </c>
-      <c r="D14" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A15" s="17" t="s">
-        <v>58</v>
-      </c>
-      <c r="B15" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="C15" s="17" t="s">
-        <v>53</v>
-      </c>
-      <c r="D15" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A16" s="17" t="s">
-        <v>58</v>
-      </c>
-      <c r="B16" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="C16" s="17" t="s">
-        <v>53</v>
-      </c>
-      <c r="D16" s="17" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A17" s="17" t="s">
-        <v>58</v>
-      </c>
-      <c r="B17" s="17" t="s">
-        <v>56</v>
-      </c>
-      <c r="C17" s="17" t="s">
-        <v>54</v>
-      </c>
-      <c r="D17" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A18" s="17" t="s">
-        <v>58</v>
-      </c>
-      <c r="B18" s="17" t="s">
-        <v>56</v>
-      </c>
-      <c r="C18" s="17" t="s">
-        <v>54</v>
-      </c>
-      <c r="D18" s="17" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A19" s="17" t="s">
-        <v>58</v>
-      </c>
-      <c r="B19" s="17" t="s">
-        <v>56</v>
-      </c>
-      <c r="C19" s="17" t="s">
-        <v>54</v>
-      </c>
-      <c r="D19" t="s">
+    </row>
+    <row r="28" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A28" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="B28" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="C28" s="16" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A20" s="17" t="s">
-        <v>58</v>
-      </c>
-      <c r="B20" s="17" t="s">
-        <v>56</v>
-      </c>
-      <c r="C20" s="17" t="s">
-        <v>54</v>
-      </c>
-      <c r="D20" s="17" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A21" s="17" t="s">
-        <v>58</v>
-      </c>
-      <c r="B21" s="17" t="s">
-        <v>56</v>
-      </c>
-      <c r="C21" s="17" t="s">
-        <v>54</v>
-      </c>
-      <c r="D21" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A22" s="17" t="s">
-        <v>58</v>
-      </c>
-      <c r="B22" s="17" t="s">
-        <v>56</v>
-      </c>
-      <c r="C22" s="17" t="s">
-        <v>55</v>
-      </c>
-      <c r="D22" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A23" s="17" t="s">
-        <v>58</v>
-      </c>
-      <c r="B23" s="17" t="s">
-        <v>56</v>
-      </c>
-      <c r="C23" s="17" t="s">
-        <v>55</v>
-      </c>
-      <c r="D23" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A24" s="17" t="s">
-        <v>58</v>
-      </c>
-      <c r="B24" s="17" t="s">
-        <v>56</v>
-      </c>
-      <c r="C24" s="17" t="s">
-        <v>55</v>
-      </c>
-      <c r="D24" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A25" s="17" t="s">
-        <v>58</v>
-      </c>
-      <c r="B25" s="17" t="s">
-        <v>56</v>
-      </c>
-      <c r="C25" s="17" t="s">
-        <v>55</v>
-      </c>
-      <c r="D25" s="17" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A26" s="17" t="s">
-        <v>58</v>
-      </c>
-      <c r="B26" s="17" t="s">
+      <c r="D28" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="C26" s="17" t="s">
-        <v>53</v>
-      </c>
-      <c r="D26" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A27" s="17" t="s">
-        <v>58</v>
-      </c>
-      <c r="B27" s="17" t="s">
-        <v>60</v>
-      </c>
-      <c r="C27" s="17" t="s">
-        <v>53</v>
-      </c>
-      <c r="D27" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A28" s="17" t="s">
-        <v>58</v>
-      </c>
-      <c r="B28" s="17" t="s">
-        <v>61</v>
-      </c>
-      <c r="C28" s="17" t="s">
-        <v>53</v>
-      </c>
-      <c r="D28" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="30" spans="1:4" ht="12.75" x14ac:dyDescent="0.2"/>
+    </row>
+    <row r="29" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="D29" s="16"/>
+    </row>
+    <row r="30" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A30" s="16"/>
+      <c r="B30" s="16"/>
+      <c r="C30" s="16"/>
+      <c r="D30" s="16"/>
+    </row>
     <row r="31" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A31" s="17"/>
-      <c r="B31" s="17"/>
-      <c r="C31" s="17"/>
-      <c r="D31" s="17"/>
+      <c r="B31" s="16"/>
     </row>
     <row r="32" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B32" s="17"/>
-    </row>
-    <row r="33" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B33" s="17"/>
-    </row>
-    <row r="34" spans="2:2" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="35" spans="2:2" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="36" spans="2:2" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="37" spans="2:2" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="38" spans="2:2" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="39" spans="2:2" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="40" spans="2:2" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="41" spans="2:2" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="42" spans="2:2" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="43" spans="2:2" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="44" spans="2:2" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="45" spans="2:2" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="46" spans="2:2" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="47" spans="2:2" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="48" spans="2:2" ht="12.75" x14ac:dyDescent="0.2"/>
+      <c r="B32" s="16"/>
+    </row>
+    <row r="33" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="34" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="35" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="36" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="37" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="38" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="39" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="40" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="41" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="42" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="43" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="44" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="45" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="46" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="47" ht="12.75" x14ac:dyDescent="0.2"/>
   </sheetData>
   <phoneticPr fontId="9" type="noConversion"/>
   <printOptions horizontalCentered="1" gridLines="1"/>
@@ -1379,101 +1311,101 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="22" t="s">
-        <v>19</v>
-      </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
-      <c r="H1" s="20"/>
+      <c r="A1" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="21"/>
     </row>
     <row r="2" spans="1:26" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="24" t="s">
-        <v>20</v>
-      </c>
-      <c r="B2" s="20"/>
-      <c r="C2" s="25"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
-      <c r="F2" s="23"/>
-      <c r="G2" s="23"/>
-      <c r="H2" s="20"/>
+      <c r="A2" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="21"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="24"/>
+      <c r="G2" s="24"/>
+      <c r="H2" s="21"/>
     </row>
     <row r="3" spans="1:26" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
-        <v>21</v>
+        <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>22</v>
+        <v>3</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>21</v>
+        <v>2</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>22</v>
+        <v>3</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="I3" s="6" t="s">
-        <v>21</v>
+        <v>2</v>
       </c>
       <c r="J3" s="6" t="s">
-        <v>22</v>
+        <v>3</v>
       </c>
       <c r="K3" s="6" t="s">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="L3" s="6" t="s">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="M3" s="5" t="s">
-        <v>21</v>
+        <v>2</v>
       </c>
       <c r="N3" s="5" t="s">
-        <v>22</v>
+        <v>3</v>
       </c>
       <c r="O3" s="5" t="s">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="P3" s="5" t="s">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="Q3" s="6" t="s">
-        <v>21</v>
+        <v>2</v>
       </c>
       <c r="R3" s="6" t="s">
-        <v>22</v>
+        <v>3</v>
       </c>
       <c r="S3" s="6" t="s">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="T3" s="6" t="s">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="U3" s="5" t="s">
-        <v>21</v>
+        <v>2</v>
       </c>
       <c r="V3" s="5" t="s">
-        <v>22</v>
+        <v>3</v>
       </c>
       <c r="W3" s="5" t="s">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="X3" s="5" t="s">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="Y3" s="7"/>
       <c r="Z3" s="7"/>
@@ -2649,60 +2581,60 @@
       <c r="X34" s="2"/>
     </row>
     <row r="35" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A35" s="21" t="s">
-        <v>25</v>
-      </c>
-      <c r="B35" s="20"/>
-      <c r="C35" s="19">
+      <c r="A35" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="B35" s="21"/>
+      <c r="C35" s="20">
         <f>SUM(C4:C34)</f>
         <v>0</v>
       </c>
-      <c r="D35" s="20"/>
-      <c r="E35" s="21" t="s">
-        <v>25</v>
-      </c>
-      <c r="F35" s="20"/>
-      <c r="G35" s="19">
+      <c r="D35" s="21"/>
+      <c r="E35" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="F35" s="21"/>
+      <c r="G35" s="20">
         <f>SUM(G4:G34)</f>
         <v>0</v>
       </c>
-      <c r="H35" s="20"/>
-      <c r="I35" s="21" t="s">
-        <v>25</v>
-      </c>
-      <c r="J35" s="20"/>
-      <c r="K35" s="19">
+      <c r="H35" s="21"/>
+      <c r="I35" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="J35" s="21"/>
+      <c r="K35" s="20">
         <f>SUM(K4:K34)</f>
         <v>0</v>
       </c>
-      <c r="L35" s="20"/>
-      <c r="M35" s="21" t="s">
-        <v>25</v>
-      </c>
-      <c r="N35" s="20"/>
-      <c r="O35" s="19">
+      <c r="L35" s="21"/>
+      <c r="M35" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="N35" s="21"/>
+      <c r="O35" s="20">
         <f>SUM(O4:O34)</f>
         <v>0</v>
       </c>
-      <c r="P35" s="20"/>
-      <c r="Q35" s="21" t="s">
-        <v>25</v>
-      </c>
-      <c r="R35" s="20"/>
-      <c r="S35" s="19">
+      <c r="P35" s="21"/>
+      <c r="Q35" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="R35" s="21"/>
+      <c r="S35" s="20">
         <f>SUM(S4:S34)</f>
         <v>0</v>
       </c>
-      <c r="T35" s="20"/>
-      <c r="U35" s="21" t="s">
-        <v>25</v>
-      </c>
-      <c r="V35" s="20"/>
-      <c r="W35" s="19">
+      <c r="T35" s="21"/>
+      <c r="U35" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="V35" s="21"/>
+      <c r="W35" s="20">
         <f>SUM(W4:W34)</f>
         <v>0</v>
       </c>
-      <c r="X35" s="20"/>
+      <c r="X35" s="21"/>
     </row>
     <row r="36" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A36" s="3"/>

--- a/checklist4.xlsx
+++ b/checklist4.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\FORM5\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB404044-F124-477E-BD1D-0305C468E6B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3917222F-CF0D-418E-B1DD-CE9156867011}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Documentación de indentificació" sheetId="8" r:id="rId1"/>
@@ -20,7 +20,7 @@
     <sheet name="RESUMEN INGRESO" sheetId="5" state="hidden" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'tipos de ingreso'!$A$1:$D$27</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'tipos de ingreso'!$A$1:$D$25</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="62">
   <si>
     <t>Resumen de ingreso identificados - EECC - 6 Ultimos meses</t>
   </si>
@@ -139,12 +139,6 @@
     <t>(Obligatorio) HR  (Del año en curso)</t>
   </si>
   <si>
-    <t>(Opcional) Foto de la Garantía</t>
-  </si>
-  <si>
-    <t>(Opcional) Ubicación de la Garantía(maps)</t>
-  </si>
-  <si>
     <t>Modalidad 1</t>
   </si>
   <si>
@@ -190,21 +184,9 @@
     <t>(Obligatorio) Cuadro Resumen de Inmuebles alquilados</t>
   </si>
   <si>
-    <t xml:space="preserve">(Opcional) Recibo de cobro de alquileres </t>
-  </si>
-  <si>
-    <t>(Obligatorio) Documentación que acredita propiedad de negocio (Licencia de funcionamiento, constancia de posesión de puesto, etc)</t>
-  </si>
-  <si>
     <t>(Obligatorio) Cuadernos de venta (6 Ultimos meses)</t>
   </si>
   <si>
-    <t>(Opcional) Resúmen de ingreso (Si se sustenta con Cuadernos)</t>
-  </si>
-  <si>
-    <t>(Opcional) Contrato de alquiler de local</t>
-  </si>
-  <si>
     <t>(Obligatorio) Fotos del negocio (fotos del puesto o stand y fotos de mercadería en caso sea negocio virtual)</t>
   </si>
   <si>
@@ -227,6 +209,21 @@
   </si>
   <si>
     <t>(Obligatorio) Certificado de Divorcio (si figuran casados en dni pero tiene divorcio reciente)</t>
+  </si>
+  <si>
+    <t>(Obligatorio) Sustento de actividad económica de titular(Ejemplo: Si cliente es dependiente puedes adjuntar su ultima boleta o si es independiente adjuntar alguna foto de su negocio o boleta de venta del mismo)</t>
+  </si>
+  <si>
+    <t>Recibo de cobro de alquileres (Es obligatorio cuando el cliente lleva el control de sus rentas con recibos emitidos por el hacia el inquilino)</t>
+  </si>
+  <si>
+    <t>Resúmen de ingreso (Es obligatorio si sustenta con cuadernos y ayudará al analista a entender mejor la operación)</t>
+  </si>
+  <si>
+    <t>Foto de la Garantía y Ubicación de la Garantía(maps)(Obligatorio cuando el inmueble está en las periferias o hay elementos que hagan que la venta de ese inmueble sea más complejo (Ubicado en un cerro, a medio construir, etc).</t>
+  </si>
+  <si>
+    <t>(Obligatorio) Documentación que acredita propiedad de negocio (Licencia de funcionamiento, constancia de posesión de puesto, paginas web etc)</t>
   </si>
 </sst>
 </file>
@@ -685,7 +682,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E36534F0-044C-4E68-A267-7059DA47BA45}">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
@@ -727,10 +724,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FBDB72A-7C1B-4C79-869F-17F77FB8C9CA}">
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -740,7 +737,7 @@
   <sheetData>
     <row r="1" spans="1:2" s="13" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="19" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B1" s="14" t="s">
         <v>8</v>
@@ -748,7 +745,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>31</v>
@@ -756,7 +753,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>30</v>
@@ -764,7 +761,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>32</v>
@@ -772,23 +769,15 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>33</v>
+        <v>60</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -799,8 +788,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0FC6392B-5BB0-4EB9-9D25-F62E59C24112}">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:XFD9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -821,7 +810,7 @@
         <v>9</v>
       </c>
       <c r="B2" s="17" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
@@ -829,7 +818,7 @@
         <v>9</v>
       </c>
       <c r="B3" s="17" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -844,10 +833,10 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:D47"/>
+  <dimension ref="A1:D45"/>
   <sheetViews>
-    <sheetView topLeftCell="A15" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView topLeftCell="B1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -883,7 +872,7 @@
         <v>7</v>
       </c>
       <c r="D2" s="16" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
@@ -897,7 +886,7 @@
         <v>7</v>
       </c>
       <c r="D3" s="16" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
@@ -911,7 +900,7 @@
         <v>7</v>
       </c>
       <c r="D4" s="16" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
@@ -922,10 +911,10 @@
         <v>15</v>
       </c>
       <c r="C5" s="16" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D5" s="16" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
@@ -936,10 +925,10 @@
         <v>15</v>
       </c>
       <c r="C6" s="16" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D6" s="16" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
@@ -950,10 +939,10 @@
         <v>15</v>
       </c>
       <c r="C7" s="16" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D7" s="16" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
@@ -964,10 +953,10 @@
         <v>16</v>
       </c>
       <c r="C8" s="16" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D8" s="16" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
@@ -978,10 +967,10 @@
         <v>16</v>
       </c>
       <c r="C9" s="16" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D9" s="16" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
@@ -992,10 +981,10 @@
         <v>16</v>
       </c>
       <c r="C10" s="16" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D10" s="16" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
@@ -1006,10 +995,10 @@
         <v>16</v>
       </c>
       <c r="C11" s="16" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D11" s="16" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
@@ -1023,7 +1012,7 @@
         <v>17</v>
       </c>
       <c r="D12" s="16" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
@@ -1037,7 +1026,7 @@
         <v>17</v>
       </c>
       <c r="D13" s="16" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
@@ -1051,7 +1040,7 @@
         <v>17</v>
       </c>
       <c r="D14" s="16" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
@@ -1065,7 +1054,7 @@
         <v>17</v>
       </c>
       <c r="D15" s="16" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
@@ -1079,7 +1068,7 @@
         <v>18</v>
       </c>
       <c r="D16" s="16" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
@@ -1093,7 +1082,7 @@
         <v>18</v>
       </c>
       <c r="D17" s="16" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
@@ -1107,7 +1096,7 @@
         <v>18</v>
       </c>
       <c r="D18" s="16" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
@@ -1121,7 +1110,7 @@
         <v>18</v>
       </c>
       <c r="D19" s="16" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
@@ -1132,10 +1121,10 @@
         <v>20</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D20" s="16" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
@@ -1149,7 +1138,7 @@
         <v>19</v>
       </c>
       <c r="D21" s="16" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
@@ -1163,7 +1152,7 @@
         <v>19</v>
       </c>
       <c r="D22" s="16" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
@@ -1171,13 +1160,13 @@
         <v>22</v>
       </c>
       <c r="B23" s="16" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D23" s="16" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
@@ -1185,13 +1174,13 @@
         <v>22</v>
       </c>
       <c r="B24" s="16" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D24" s="16" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
@@ -1199,72 +1188,57 @@
         <v>22</v>
       </c>
       <c r="B25" s="16" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C25" s="16" t="s">
         <v>17</v>
       </c>
       <c r="D25" s="16" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A26" s="16" t="s">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="B26" s="16" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="D26" s="16" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A27" s="16" t="s">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="B27" s="16" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="C27" s="16" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="D27" s="16" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A28" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="B28" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="C28" s="16" t="s">
-        <v>7</v>
-      </c>
-      <c r="D28" s="16" t="s">
-        <v>59</v>
-      </c>
+      <c r="A28" s="16"/>
+      <c r="B28" s="16"/>
+      <c r="C28" s="16"/>
+      <c r="D28" s="16"/>
     </row>
     <row r="29" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D29" s="16"/>
+      <c r="B29" s="16"/>
     </row>
     <row r="30" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A30" s="16"/>
       <c r="B30" s="16"/>
-      <c r="C30" s="16"/>
-      <c r="D30" s="16"/>
-    </row>
-    <row r="31" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B31" s="16"/>
-    </row>
-    <row r="32" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B32" s="16"/>
-    </row>
+    </row>
+    <row r="31" spans="1:4" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="32" spans="1:4" ht="12.75" x14ac:dyDescent="0.2"/>
     <row r="33" ht="12.75" x14ac:dyDescent="0.2"/>
     <row r="34" ht="12.75" x14ac:dyDescent="0.2"/>
     <row r="35" ht="12.75" x14ac:dyDescent="0.2"/>
@@ -1278,8 +1252,6 @@
     <row r="43" ht="12.75" x14ac:dyDescent="0.2"/>
     <row r="44" ht="12.75" x14ac:dyDescent="0.2"/>
     <row r="45" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="46" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="47" ht="12.75" x14ac:dyDescent="0.2"/>
   </sheetData>
   <phoneticPr fontId="9" type="noConversion"/>
   <printOptions horizontalCentered="1" gridLines="1"/>
